--- a/AY25-26 CSE E2 S2.xlsx
+++ b/AY25-26 CSE E2 S2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A649F93D-FB61-2B49-8056-356DB3BDC919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63B4A5DC-6E3F-FB4F-B330-BFB962ADB601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="68">
   <si>
     <t>A.Y 25-26_E2_SEM2_COMPUTER SCIENCE AND ENGINEERING TIMETABLE</t>
   </si>
@@ -66,15 +66,15 @@
     <t>Slot-1</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
     <t>E</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Slot-3</t>
+  </si>
+  <si>
+    <t>Library</t>
   </si>
   <si>
     <t>Slot-4</t>
@@ -271,13 +274,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF95B3D7"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -285,6 +281,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF95B3D7"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
@@ -430,37 +433,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -473,7 +476,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -488,7 +491,7 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -916,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1048,19 +1051,16 @@
       <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="6" t="s">
         <v>14</v>
       </c>
@@ -1071,8 +1071,8 @@
       <c r="K5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="12" t="s">
-        <v>13</v>
+      <c r="L5" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>16</v>
@@ -1095,12 +1095,14 @@
       <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>18</v>
@@ -1125,10 +1127,10 @@
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="14"/>
+      <c r="Q6" s="12"/>
     </row>
     <row r="7" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
@@ -1143,7 +1145,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="15"/>
+      <c r="J7" s="13"/>
       <c r="K7" s="9" t="s">
         <v>24</v>
       </c>
@@ -1151,45 +1153,48 @@
       <c r="M7" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="N7" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="O7" s="5"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="16"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="15"/>
+      <c r="J8" s="13"/>
       <c r="K8" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>11</v>
+      <c r="P8" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1198,9 +1203,9 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="15"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -1210,12 +1215,12 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>16</v>
@@ -1229,18 +1234,18 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="15"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="N10" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O10" s="9" t="s">
         <v>16</v>
@@ -1248,37 +1253,39 @@
       <c r="P10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q10" s="14"/>
+      <c r="Q10" s="12"/>
     </row>
     <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="11"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="9"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="15"/>
+      <c r="J11" s="13"/>
       <c r="K11" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="11"/>
+      <c r="N11" s="10"/>
       <c r="O11" s="9" t="s">
         <v>23</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="16"/>
+      <c r="Q11" s="15"/>
     </row>
     <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
@@ -1333,18 +1340,18 @@
     </row>
     <row r="13" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -1355,22 +1362,22 @@
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>10</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>14</v>
@@ -1381,7 +1388,7 @@
     </row>
     <row r="14" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>20</v>
@@ -1399,7 +1406,7 @@
       <c r="G14" s="4"/>
       <c r="I14" s="6"/>
       <c r="J14" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>20</v>
@@ -1408,7 +1415,7 @@
         <v>18</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6" t="s">
@@ -1418,7 +1425,7 @@
       <c r="Q14" s="4"/>
     </row>
     <row r="15" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="9" t="s">
         <v>24</v>
       </c>
@@ -1429,58 +1436,60 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="H15" s="10"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="15"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L15" s="6"/>
-      <c r="M15" s="9"/>
+      <c r="M15" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="17"/>
     </row>
     <row r="16" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="19" t="s">
+      <c r="F16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="11"/>
+      <c r="G16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="10"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="15"/>
+      <c r="J16" s="13"/>
       <c r="K16" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="10" t="s">
-        <v>12</v>
+      <c r="N16" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="O16" s="6"/>
       <c r="P16" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="20"/>
+        <v>11</v>
+      </c>
+      <c r="Q16" s="19"/>
     </row>
     <row r="17" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -1489,9 +1498,9 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="15"/>
+      <c r="J17" s="13"/>
       <c r="K17" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -1501,27 +1510,28 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>16</v>
       </c>
+      <c r="F18" s="10"/>
       <c r="G18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="H18" s="10"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="15"/>
+      <c r="J18" s="13"/>
       <c r="K18" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>23</v>
@@ -1530,43 +1540,45 @@
         <v>23</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="O18" s="6"/>
-      <c r="P18" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="O18" s="9"/>
+      <c r="P18" s="18" t="s">
         <v>16</v>
       </c>
       <c r="Q18" s="9"/>
       <c r="S18" s="6"/>
     </row>
     <row r="19" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="D19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="18"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="15"/>
+      <c r="J19" s="13"/>
       <c r="K19" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O19" s="6"/>
+      <c r="O19" s="12"/>
       <c r="P19" s="9"/>
-      <c r="Q19" s="14"/>
+      <c r="Q19" s="12"/>
       <c r="S19" s="6"/>
     </row>
     <row r="20" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1610,19 +1622,19 @@
     <row r="22" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
       <c r="B22" s="24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="22"/>
@@ -1641,19 +1653,19 @@
         <v>16</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23" s="32">
         <v>4</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="22"/>
@@ -1669,22 +1681,22 @@
     </row>
     <row r="24" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="22"/>
@@ -1703,19 +1715,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25" s="32">
         <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="22"/>
@@ -1734,19 +1746,19 @@
         <v>21</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26" s="32">
         <v>3</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="22"/>
@@ -1762,22 +1774,22 @@
     </row>
     <row r="27" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" s="32">
         <v>3</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="22"/>
@@ -1796,19 +1808,19 @@
         <v>18</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E28" s="32">
         <v>3</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="22"/>
@@ -1824,22 +1836,22 @@
     </row>
     <row r="29" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29" s="32">
         <v>3</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="22"/>
@@ -1858,19 +1870,19 @@
         <v>17</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E30" s="32">
         <v>3</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="22"/>
@@ -1950,7 +1962,7 @@
     <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="38">
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="F28:G28"/>
@@ -1974,7 +1986,6 @@
     <mergeCell ref="P13:P15"/>
     <mergeCell ref="B17:H17"/>
     <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="O18:O19"/>
     <mergeCell ref="A1:Q2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="I4:I11"/>
